--- a/docs/ST1/ST1_02.08.24_output.xlsx
+++ b/docs/ST1/ST1_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730731439.2604485</t>
+          <t>1731620412.3311982</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730731444.349353</t>
+          <t>1731620417.2194011</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730731439.2604485.png</t>
+          <t>./test_images/SBER1731620412.3311982.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730731444.349353.png</t>
+          <t>./test_images/SBER1731620417.2194011.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>1.560000000000002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +598,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730731446.3991373</t>
+          <t>1731620419.1411922</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1730731453.9416962</t>
+          <t>1731620426.5381782</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730731446.3991373.png</t>
+          <t>./test_images/SBER1731620419.1411922.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730731453.9416962.png</t>
+          <t>./test_images/SBER1731620426.5381782.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -625,6 +634,9 @@
       </c>
       <c r="K4" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +650,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730731461.8345253</t>
+          <t>1731620434.4272327</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1730731469.0737712</t>
+          <t>1731620441.7052364</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730731461.8345253.png</t>
+          <t>./test_images/SBER1731620434.4272327.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730731469.0737712.png</t>
+          <t>./test_images/SBER1731620441.7052364.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -674,6 +686,9 @@
       </c>
       <c r="K5" t="n">
         <v>-1.229999999999961</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="6">
@@ -687,22 +702,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730731483.344109</t>
+          <t>1731620455.7388902</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1730731484.90646</t>
+          <t>1731620457.3398664</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731483.344109.png</t>
+          <t>./test_images/GAZP1731620455.7388902.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731484.90646.png</t>
+          <t>./test_images/GAZP1731620457.3398664.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -723,6 +738,9 @@
       </c>
       <c r="K6" t="n">
         <v>0.9000000000000057</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -736,22 +754,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730731489.8859828</t>
+          <t>1731620462.502919</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730731496.8286803</t>
+          <t>1731620469.6142218</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731489.8859828.png</t>
+          <t>./test_images/GAZP1731620462.502919.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731496.8286803.png</t>
+          <t>./test_images/GAZP1731620469.6142218.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -772,6 +790,9 @@
       </c>
       <c r="K7" t="n">
         <v>-1.189999999999998</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="8">
@@ -785,22 +806,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730731496.8446372</t>
+          <t>1731620469.6301801</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1730731502.964728</t>
+          <t>1731620475.9209723</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731496.8446372.png</t>
+          <t>./test_images/GAZP1731620469.6301801.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731502.964728.png</t>
+          <t>./test_images/GAZP1731620475.9209723.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -821,6 +842,9 @@
       </c>
       <c r="K8" t="n">
         <v>-0.3900000000000148</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="9">
@@ -834,22 +858,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730731504.1702495</t>
+          <t>1731620477.2064376</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1730731505.210889</t>
+          <t>1731620478.2964356</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731504.1702495.png</t>
+          <t>./test_images/GAZP1731620477.2064376.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731505.210889.png</t>
+          <t>./test_images/GAZP1731620478.2964356.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -869,6 +893,9 @@
         <v>131.2</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -883,22 +910,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730731505.2268186</t>
+          <t>1731620478.3124225</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730731505.7699378</t>
+          <t>1731620478.8557713</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731505.2268186.png</t>
+          <t>./test_images/GAZP1731620478.3124225.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731505.7699378.png</t>
+          <t>./test_images/GAZP1731620478.8557713.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -919,6 +946,9 @@
       </c>
       <c r="K10" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
@@ -932,22 +962,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730731505.7859228</t>
+          <t>1731620478.8717282</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1730731507.5453033</t>
+          <t>1731620480.589273</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731505.7859228.png</t>
+          <t>./test_images/GAZP1731620478.8717282.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730731507.5453033.png</t>
+          <t>./test_images/GAZP1731620480.589273.png</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -968,6 +998,9 @@
       </c>
       <c r="K11" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="12">
@@ -981,22 +1014,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730731509.1736853</t>
+          <t>1731620482.3140419</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1730731519.098579</t>
+          <t>1731620492.745396</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730731509.1736853.png</t>
+          <t>./test_images/LKOH1731620482.3140419.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730731519.098579.png</t>
+          <t>./test_images/LKOH1731620492.745396.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1017,6 +1050,9 @@
       </c>
       <c r="K12" t="n">
         <v>57</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1030,22 +1066,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730731529.788134</t>
+          <t>1731620502.8024397</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1730731536.4931743</t>
+          <t>1731620509.1808534</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730731529.788134.png</t>
+          <t>./test_images/LKOH1731620502.8024397.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730731536.4931743.png</t>
+          <t>./test_images/LKOH1731620509.1808534.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1066,6 +1102,9 @@
       </c>
       <c r="K13" t="n">
         <v>-33</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14">
@@ -1079,22 +1118,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730731546.8592536</t>
+          <t>1731620519.0155659</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1730731549.8542387</t>
+          <t>1731620521.9200325</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730731546.8592536.png</t>
+          <t>./test_images/ROSN1731620519.0155659.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730731549.8542387.png</t>
+          <t>./test_images/ROSN1731620521.9200325.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1115,6 +1154,9 @@
       </c>
       <c r="K14" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
@@ -1128,22 +1170,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730731549.870677</t>
+          <t>1731620521.9359887</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1730731551.2510421</t>
+          <t>1731620523.2730584</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730731549.870677.png</t>
+          <t>./test_images/ROSN1731620521.9359887.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730731551.2510421.png</t>
+          <t>./test_images/ROSN1731620523.2730584.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1164,6 +1206,9 @@
       </c>
       <c r="K15" t="n">
         <v>1.949999999999989</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="16">
@@ -1177,22 +1222,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730731562.3549702</t>
+          <t>1731620534.063049</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1730731571.618304</t>
+          <t>1731620543.371725</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730731562.3549702.png</t>
+          <t>./test_images/ROSN1731620534.063049.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730731571.618304.png</t>
+          <t>./test_images/ROSN1731620543.371725.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1213,6 +1258,9 @@
       </c>
       <c r="K16" t="n">
         <v>-1.050000000000011</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="17">
@@ -1226,22 +1274,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730731571.6342611</t>
+          <t>1731620543.3886807</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730731573.9405692</t>
+          <t>1731620545.7750008</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730731571.6342611.png</t>
+          <t>./test_images/ROSN1731620543.3886807.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730731573.9405692.png</t>
+          <t>./test_images/ROSN1731620545.7750008.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1262,6 +1310,9 @@
       </c>
       <c r="K17" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
@@ -1275,13 +1326,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730731573.9565268</t>
+          <t>1731620545.7921748</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730731573.9565268.png</t>
+          <t>./test_images/ROSN1731620545.7921748.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1298,8 +1349,15 @@
       <c r="I18" t="n">
         <v>504.65</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>504.65</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1312,22 +1370,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730731576.1862893</t>
+          <t>1731620548.1516201</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1730731580.1448617</t>
+          <t>1731620552.2492669</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730731576.1862893.png</t>
+          <t>./test_images/MOEX1731620548.1516201.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730731580.1448617.png</t>
+          <t>./test_images/MOEX1731620552.2492669.png</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1348,6 +1406,9 @@
       </c>
       <c r="K19" t="n">
         <v>1.239999999999981</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="20">
@@ -1361,22 +1422,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730731587.8987556</t>
+          <t>1731620560.465418</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730731595.936687</t>
+          <t>1731620568.9052758</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730731587.8987556.png</t>
+          <t>./test_images/MOEX1731620560.465418.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730731595.936687.png</t>
+          <t>./test_images/MOEX1731620568.9052758.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1397,6 +1458,9 @@
       </c>
       <c r="K20" t="n">
         <v>-1.969999999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="21">
@@ -1410,22 +1474,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730731595.953196</t>
+          <t>1731620568.921262</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1730731607.546708</t>
+          <t>1731620580.6673152</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730731595.953196.png</t>
+          <t>./test_images/MOEX1731620568.921262.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730731607.546708.png</t>
+          <t>./test_images/MOEX1731620580.6673152.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1445,6 +1509,9 @@
         <v>230.12</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1459,13 +1526,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730731607.5666275</t>
+          <t>1731620580.6902254</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730731607.5666275.png</t>
+          <t>./test_images/MOEX1731620580.6902254.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1482,8 +1549,15 @@
       <c r="I22" t="n">
         <v>230.12</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>230.12</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1496,22 +1570,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730731610.4441252</t>
+          <t>1731620583.5866754</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730731617.6361988</t>
+          <t>1731620591.120741</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731610.4441252.png</t>
+          <t>./test_images/NVTK1731620583.5866754.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731617.6361988.png</t>
+          <t>./test_images/NVTK1731620591.120741.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1532,6 +1606,9 @@
       </c>
       <c r="K23" t="n">
         <v>-3.800000000000182</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="24">
@@ -1545,22 +1622,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730731617.6521285</t>
+          <t>1731620591.1366804</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1730731619.7741373</t>
+          <t>1731620593.3455577</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731617.6521285.png</t>
+          <t>./test_images/NVTK1731620591.1366804.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731619.7741373.png</t>
+          <t>./test_images/NVTK1731620593.3455577.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1581,6 +1658,9 @@
       </c>
       <c r="K24" t="n">
         <v>4.199999999999932</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="25">
@@ -1594,22 +1674,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730731625.472725</t>
+          <t>1731620599.2534006</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1730731629.624582</t>
+          <t>1731620603.67351</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731625.472725.png</t>
+          <t>./test_images/NVTK1731620599.2534006.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731629.624582.png</t>
+          <t>./test_images/NVTK1731620603.67351.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1630,6 +1710,9 @@
       </c>
       <c r="K25" t="n">
         <v>-2.600000000000023</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="26">
@@ -1643,22 +1726,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730731629.6421466</t>
+          <t>1731620603.6904645</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1730731636.2473295</t>
+          <t>1731620610.69663</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731629.6421466.png</t>
+          <t>./test_images/NVTK1731620603.6904645.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731636.2473295.png</t>
+          <t>./test_images/NVTK1731620610.69663.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1679,6 +1762,9 @@
       </c>
       <c r="K26" t="n">
         <v>-4.400000000000091</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="27">
@@ -1692,22 +1778,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730731636.2632604</t>
+          <t>1731620610.7135844</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1730731637.2377143</t>
+          <t>1731620611.6686516</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731636.2632604.png</t>
+          <t>./test_images/NVTK1731620610.7135844.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731637.2377143.png</t>
+          <t>./test_images/NVTK1731620611.6686516.png</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1728,6 +1814,9 @@
       </c>
       <c r="K27" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="28">
@@ -1741,22 +1830,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730731638.0460713</t>
+          <t>1731620612.544511</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1730731640.3025682</t>
+          <t>1731620614.8238094</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731638.0460713.png</t>
+          <t>./test_images/NVTK1731620612.544511.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731640.3025682.png</t>
+          <t>./test_images/NVTK1731620614.8238094.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1777,6 +1866,9 @@
       </c>
       <c r="K28" t="n">
         <v>-1.599999999999909</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="29">
@@ -1790,22 +1882,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730731640.319523</t>
+          <t>1731620614.8415484</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730731640.8605833</t>
+          <t>1731620615.379464</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731640.319523.png</t>
+          <t>./test_images/NVTK1731620614.8415484.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731640.8605833.png</t>
+          <t>./test_images/NVTK1731620615.379464.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1826,6 +1918,9 @@
       </c>
       <c r="K29" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
@@ -1839,13 +1934,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730731640.8785348</t>
+          <t>1731620615.3963928</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730731640.8785348.png</t>
+          <t>./test_images/NVTK1731620615.3963928.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1862,8 +1957,15 @@
       <c r="I30" t="n">
         <v>1020.4</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1020.4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1876,22 +1978,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730731646.361265</t>
+          <t>1731620626.0753126</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1730731647.0004065</t>
+          <t>1731620626.7475219</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730731646.361265.png</t>
+          <t>./test_images/GMKN1731620626.0753126.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730731647.0004065.png</t>
+          <t>./test_images/GMKN1731620626.7475219.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1912,6 +2014,9 @@
       </c>
       <c r="K31" t="n">
         <v>0.4400000000000119</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="32">
@@ -1925,22 +2030,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730731651.3200994</t>
+          <t>1731620631.2888584</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1730731652.9423854</t>
+          <t>1731620632.9490693</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730731651.3200994.png</t>
+          <t>./test_images/GMKN1731620631.2888584.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730731652.9423854.png</t>
+          <t>./test_images/GMKN1731620632.9490693.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1961,6 +2066,9 @@
       </c>
       <c r="K32" t="n">
         <v>0.3399999999999892</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="33">
@@ -1974,22 +2082,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730731661.147102</t>
+          <t>1731620641.485122</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1730731661.7131636</t>
+          <t>1731620642.0182557</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730731661.147102.png</t>
+          <t>./test_images/GMKN1731620641.485122.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730731661.7131636.png</t>
+          <t>./test_images/GMKN1731620642.0182557.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2010,6 +2118,9 @@
       </c>
       <c r="K33" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="34">
@@ -2023,22 +2134,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1730731663.958487</t>
+          <t>1731620644.3971794</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1730731668.2815192</t>
+          <t>1731620648.8846068</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730731663.958487.png</t>
+          <t>./test_images/GMKN1731620644.3971794.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730731668.2815192.png</t>
+          <t>./test_images/GMKN1731620648.8846068.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2059,6 +2170,9 @@
       </c>
       <c r="K34" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="35">
@@ -2072,22 +2186,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1730731668.298444</t>
+          <t>1731620648.901561</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1730731670.854195</t>
+          <t>1731620651.486459</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730731668.298444.png</t>
+          <t>./test_images/GMKN1731620648.901561.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730731670.854195.png</t>
+          <t>./test_images/GMKN1731620651.486459.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2108,6 +2222,9 @@
       </c>
       <c r="K35" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="36">
@@ -2121,22 +2238,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1730731676.8447144</t>
+          <t>1731620657.8655076</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1730731692.2244358</t>
+          <t>1731620673.8839374</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730731676.8447144.png</t>
+          <t>./test_images/NLMK1731620657.8655076.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730731692.2244358.png</t>
+          <t>./test_images/NLMK1731620673.8839374.png</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2157,6 +2274,9 @@
       </c>
       <c r="K36" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="37">
@@ -2170,22 +2290,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1730731696.851169</t>
+          <t>1731620678.728579</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1730731705.5765243</t>
+          <t>1731620687.6399953</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730731696.851169.png</t>
+          <t>./test_images/NLMK1731620678.728579.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730731705.5765243.png</t>
+          <t>./test_images/NLMK1731620687.6399953.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2206,6 +2326,9 @@
       </c>
       <c r="K37" t="n">
         <v>-0.5400000000000205</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="38">
@@ -2219,13 +2342,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1730731705.5936182</t>
+          <t>1731620687.6569667</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730731705.5936182.png</t>
+          <t>./test_images/NLMK1731620687.6569667.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2242,8 +2365,15 @@
       <c r="I38" t="n">
         <v>165.26</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>165.26</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2256,22 +2386,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1730731707.5822074</t>
+          <t>1731620689.653751</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1730731713.9660814</t>
+          <t>1731620696.1184416</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731707.5822074.png</t>
+          <t>./test_images/MAGN1731620689.653751.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731713.9660814.png</t>
+          <t>./test_images/MAGN1731620696.1184416.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2292,6 +2422,9 @@
       </c>
       <c r="K39" t="n">
         <v>0.2250000000000014</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="40">
@@ -2305,22 +2438,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1730731715.110696</t>
+          <t>1731620697.282974</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1730731719.0600393</t>
+          <t>1731620701.502489</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731715.110696.png</t>
+          <t>./test_images/MAGN1731620697.282974.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731719.0600393.png</t>
+          <t>./test_images/MAGN1731620701.502489.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2341,6 +2474,9 @@
       </c>
       <c r="K40" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="41">
@@ -2354,22 +2490,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1730731719.0766716</t>
+          <t>1731620701.519444</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1730731723.773778</t>
+          <t>1731620706.4809597</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731719.0766716.png</t>
+          <t>./test_images/MAGN1731620701.519444.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731723.773778.png</t>
+          <t>./test_images/MAGN1731620706.4809597.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2390,6 +2526,9 @@
       </c>
       <c r="K41" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="42">
@@ -2403,22 +2542,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1730731723.7907324</t>
+          <t>1731620706.4979143</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1730731724.645072</t>
+          <t>1731620707.383003</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731723.7907324.png</t>
+          <t>./test_images/MAGN1731620706.4979143.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731724.645072.png</t>
+          <t>./test_images/MAGN1731620707.383003.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2439,6 +2578,9 @@
       </c>
       <c r="K42" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="43">
@@ -2452,22 +2594,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1730731729.6138651</t>
+          <t>1731620712.4550607</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1730731735.3887498</t>
+          <t>1731620718.7051382</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731729.6138651.png</t>
+          <t>./test_images/MAGN1731620712.4550607.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731735.3887498.png</t>
+          <t>./test_images/MAGN1731620718.7051382.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2488,6 +2630,9 @@
       </c>
       <c r="K43" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="44">
@@ -2501,22 +2646,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1730731736.3572206</t>
+          <t>1731620719.681518</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1730731739.3698518</t>
+          <t>1731620722.828074</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731736.3572206.png</t>
+          <t>./test_images/MAGN1731620719.681518.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731739.3698518.png</t>
+          <t>./test_images/MAGN1731620722.828074.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2537,6 +2682,9 @@
       </c>
       <c r="K44" t="n">
         <v>0.04500000000000171</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="45">
@@ -2550,13 +2698,13 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1730731739.9414144</t>
+          <t>1731620723.3904948</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730731739.9414144.png</t>
+          <t>./test_images/MAGN1731620723.3904948.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2573,8 +2721,15 @@
       <c r="I45" t="n">
         <v>50.405</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>50.405</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2587,22 +2742,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1730731742.385878</t>
+          <t>1731620726.0119846</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1730731745.9186785</t>
+          <t>1731620729.7590446</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731742.385878.png</t>
+          <t>./test_images/CHMF1731620726.0119846.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731745.9186785.png</t>
+          <t>./test_images/CHMF1731620729.7590446.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2623,6 +2778,9 @@
       </c>
       <c r="K46" t="n">
         <v>4.599999999999909</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="47">
@@ -2636,22 +2794,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1730731750.0916488</t>
+          <t>1731620734.1183567</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1730731752.3661792</t>
+          <t>1731620736.360377</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731750.0916488.png</t>
+          <t>./test_images/CHMF1731620734.1183567.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731752.3661792.png</t>
+          <t>./test_images/CHMF1731620736.360377.png</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2672,6 +2830,9 @@
       </c>
       <c r="K47" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="48">
@@ -2685,22 +2846,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1730731753.8337915</t>
+          <t>1731620737.7486646</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1730731757.29407</t>
+          <t>1731620741.3528666</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731753.8337915.png</t>
+          <t>./test_images/CHMF1731620737.7486646.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731757.29407.png</t>
+          <t>./test_images/CHMF1731620741.3528666.png</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2721,6 +2882,9 @@
       </c>
       <c r="K48" t="n">
         <v>9.799999999999955</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -2734,22 +2898,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1730731760.093894</t>
+          <t>1731620744.108505</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1730731763.3751516</t>
+          <t>1731620747.3796046</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731760.093894.png</t>
+          <t>./test_images/CHMF1731620744.108505.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731763.3751516.png</t>
+          <t>./test_images/CHMF1731620747.3796046.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2770,6 +2934,9 @@
       </c>
       <c r="K49" t="n">
         <v>5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="50">
@@ -2783,22 +2950,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1730731763.392079</t>
+          <t>1731620747.3965619</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1730731767.939004</t>
+          <t>1731620751.6735115</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731763.392079.png</t>
+          <t>./test_images/CHMF1731620747.3965619.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731767.939004.png</t>
+          <t>./test_images/CHMF1731620751.6735115.png</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2819,6 +2986,9 @@
       </c>
       <c r="K50" t="n">
         <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="51">
@@ -2832,22 +3002,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1730731767.9569564</t>
+          <t>1731620751.690462</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1730731773.6465929</t>
+          <t>1731620756.9379723</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731767.9569564.png</t>
+          <t>./test_images/CHMF1731620751.690462.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731773.6465929.png</t>
+          <t>./test_images/CHMF1731620756.9379723.png</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2868,6 +3038,9 @@
       </c>
       <c r="K51" t="n">
         <v>-5.200000000000045</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="52">
@@ -2881,13 +3054,13 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1730731773.6645095</t>
+          <t>1731620756.954954</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730731773.6645095.png</t>
+          <t>./test_images/CHMF1731620756.954954.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -2904,8 +3077,15 @@
       <c r="I52" t="n">
         <v>1405</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1405</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2918,22 +3098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1730731778.7433734</t>
+          <t>1731620761.717089</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1730731782.869258</t>
+          <t>1731620765.6452076</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730731778.7433734.png</t>
+          <t>./test_images/ALRS1731620761.717089.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730731782.869258.png</t>
+          <t>./test_images/ALRS1731620765.6452076.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2954,6 +3134,9 @@
       </c>
       <c r="K53" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="54">
@@ -2967,22 +3150,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1730731782.8862128</t>
+          <t>1731620765.662134</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1730731786.0799775</t>
+          <t>1731620769.0798843</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730731782.8862128.png</t>
+          <t>./test_images/ALRS1731620765.662134.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730731786.0799775.png</t>
+          <t>./test_images/ALRS1731620769.0798843.png</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3003,6 +3186,9 @@
       </c>
       <c r="K54" t="n">
         <v>0.3399999999999963</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3016,22 +3202,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1730731797.5228279</t>
+          <t>1731620780.8135502</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1730731801.2286189</t>
+          <t>1731620784.567304</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730731797.5228279.png</t>
+          <t>./test_images/ALRS1731620780.8135502.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730731801.2286189.png</t>
+          <t>./test_images/ALRS1731620784.567304.png</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3052,6 +3238,9 @@
       </c>
       <c r="K55" t="n">
         <v>-0.1000000000000014</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="56">
@@ -3065,22 +3254,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1730731801.2460165</t>
+          <t>1731620784.584259</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1730731804.132368</t>
+          <t>1731620787.6637726</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730731801.2460165.png</t>
+          <t>./test_images/ALRS1731620784.584259.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730731804.132368.png</t>
+          <t>./test_images/ALRS1731620787.6637726.png</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3101,6 +3290,9 @@
       </c>
       <c r="K56" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="57">
@@ -3109,29 +3301,21 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1730731828.836651</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1730731836.0724502</t>
-        </is>
-      </c>
+          <t>1731620793.4882343</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730731828.836651.png</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1730731836.0724502.png</t>
-        </is>
-      </c>
+          <t>./test_images/VTBR1731620793.4882343.png</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>long</t>
@@ -3143,13 +3327,16 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>56.98</v>
+        <v>97.55</v>
       </c>
       <c r="J57" t="n">
-        <v>56.78</v>
+        <v>97.55</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.1999999999999957</v>
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3163,27 +3350,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1730731836.0894046</t>
+          <t>1731620817.7659054</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1730731837.7355642</t>
+          <t>1731620825.3298748</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730731836.0894046.png</t>
+          <t>./test_images/SELG1731620817.7659054.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730731837.7355642.png</t>
+          <t>./test_images/SELG1731620825.3298748.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3192,13 +3379,16 @@
         </is>
       </c>
       <c r="I58" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="J58" t="n">
         <v>56.78</v>
       </c>
-      <c r="J58" t="n">
-        <v>56.86</v>
-      </c>
       <c r="K58" t="n">
-        <v>-0.07999999999999829</v>
+        <v>-0.1999999999999957</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="59">
@@ -3212,27 +3402,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1730731837.7524924</t>
+          <t>1731620825.346827</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1730731839.464156</t>
+          <t>1731620827.0797126</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730731837.7524924.png</t>
+          <t>./test_images/SELG1731620825.346827.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730731839.464156.png</t>
+          <t>./test_images/SELG1731620827.0797126.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3241,13 +3431,16 @@
         </is>
       </c>
       <c r="I59" t="n">
+        <v>56.78</v>
+      </c>
+      <c r="J59" t="n">
         <v>56.86</v>
       </c>
-      <c r="J59" t="n">
-        <v>57.12</v>
-      </c>
       <c r="K59" t="n">
-        <v>0.259999999999998</v>
+        <v>-0.07999999999999829</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="60">
@@ -3256,27 +3449,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1730731842.620387</t>
+          <t>1731620827.0966973</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1730731846.8234136</t>
+          <t>1731620828.8969657</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731842.620387.png</t>
+          <t>./test_images/SELG1731620827.0966973.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731846.8234136.png</t>
+          <t>./test_images/SELG1731620828.8969657.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3290,13 +3483,16 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>143.16</v>
+        <v>56.86</v>
       </c>
       <c r="J60" t="n">
-        <v>143.06</v>
+        <v>57.12</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.09999999999999432</v>
+        <v>0.259999999999998</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="61">
@@ -3310,27 +3506,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1730731846.840368</t>
+          <t>1731620832.0575185</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1730731847.0314023</t>
+          <t>1731620836.246576</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731846.840368.png</t>
+          <t>./test_images/SOFL1731620832.0575185.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731847.0314023.png</t>
+          <t>./test_images/SOFL1731620836.246576.png</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3339,13 +3535,16 @@
         </is>
       </c>
       <c r="I61" t="n">
+        <v>143.16</v>
+      </c>
+      <c r="J61" t="n">
         <v>143.06</v>
       </c>
-      <c r="J61" t="n">
-        <v>142.56</v>
-      </c>
       <c r="K61" t="n">
-        <v>0.5</v>
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -3359,22 +3558,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1730731847.8249142</t>
+          <t>1731620836.2635307</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1730731852.0837219</t>
+          <t>1731620836.4489737</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731847.8249142.png</t>
+          <t>./test_images/SOFL1731620836.2635307.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731852.0837219.png</t>
+          <t>./test_images/SOFL1731620836.4489737.png</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3388,13 +3587,16 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>142.98</v>
+        <v>143.06</v>
       </c>
       <c r="J62" t="n">
-        <v>142.88</v>
+        <v>142.56</v>
       </c>
       <c r="K62" t="n">
-        <v>0.09999999999999432</v>
+        <v>0.5</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="63">
@@ -3408,27 +3610,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1730731852.0996797</t>
+          <t>1731620837.237223</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1730731856.2422698</t>
+          <t>1731620841.712399</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731852.0996797.png</t>
+          <t>./test_images/SOFL1731620837.237223.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731856.2422698.png</t>
+          <t>./test_images/SOFL1731620841.712399.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3437,13 +3639,16 @@
         </is>
       </c>
       <c r="I63" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="J63" t="n">
         <v>142.88</v>
-      </c>
-      <c r="J63" t="n">
-        <v>142.98</v>
       </c>
       <c r="K63" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -3457,27 +3662,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1730731856.2592247</t>
+          <t>1731620841.7284162</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1730731862.7016227</t>
+          <t>1731620846.0870836</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731856.2592247.png</t>
+          <t>./test_images/SOFL1731620841.7284162.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731862.7016227.png</t>
+          <t>./test_images/SOFL1731620846.0870836.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3486,13 +3691,16 @@
         </is>
       </c>
       <c r="I64" t="n">
+        <v>142.88</v>
+      </c>
+      <c r="J64" t="n">
         <v>142.98</v>
       </c>
-      <c r="J64" t="n">
-        <v>145.36</v>
-      </c>
       <c r="K64" t="n">
-        <v>-2.380000000000024</v>
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -3506,27 +3714,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1730731862.7185774</t>
+          <t>1731620846.1040385</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1730731868.788918</t>
+          <t>1731620852.8467216</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731862.7185774.png</t>
+          <t>./test_images/SOFL1731620846.1040385.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731868.788918.png</t>
+          <t>./test_images/SOFL1731620852.8467216.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3535,13 +3743,16 @@
         </is>
       </c>
       <c r="I65" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="J65" t="n">
         <v>145.36</v>
       </c>
-      <c r="J65" t="n">
-        <v>145.38</v>
-      </c>
       <c r="K65" t="n">
-        <v>0.01999999999998181</v>
+        <v>-2.380000000000024</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-1.66</v>
       </c>
     </row>
     <row r="66">
@@ -3555,16 +3766,24 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1730731869.6755474</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>1731620852.8636768</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1731620859.4219584</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730731869.6755474.png</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>./test_images/SOFL1731620852.8636768.png</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731620859.4219584.png</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>long</t>
@@ -3576,10 +3795,17 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>145.48</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>145.36</v>
+      </c>
+      <c r="J66" t="n">
+        <v>145.38</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3587,29 +3813,21 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1730731875.7458568</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1730731881.3684714</t>
-        </is>
-      </c>
+          <t>1731620860.3664098</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730731875.7458568.png</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1730731881.3684714.png</t>
-        </is>
-      </c>
+          <t>./test_images/SOFL1731620860.3664098.png</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
           <t>long</t>
@@ -3621,13 +3839,16 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>20.883</v>
+        <v>145.48</v>
       </c>
       <c r="J67" t="n">
-        <v>20.743</v>
+        <v>145.48</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.1400000000000006</v>
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3641,27 +3862,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1730731881.3854275</t>
+          <t>1731620866.7190795</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1730731884.5828152</t>
+          <t>1731620872.618277</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730731881.3854275.png</t>
+          <t>./test_images/AFKS1731620866.7190795.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730731884.5828152.png</t>
+          <t>./test_images/AFKS1731620872.618277.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3670,13 +3891,16 @@
         </is>
       </c>
       <c r="I68" t="n">
+        <v>20.883</v>
+      </c>
+      <c r="J68" t="n">
         <v>20.743</v>
       </c>
-      <c r="J68" t="n">
-        <v>20.626</v>
-      </c>
       <c r="K68" t="n">
-        <v>0.1169999999999973</v>
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="69">
@@ -3690,27 +3914,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1730731894.562966</t>
+          <t>1731620872.6361976</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1730731901.899904</t>
+          <t>1731620875.9319274</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730731894.562966.png</t>
+          <t>./test_images/AFKS1731620872.6361976.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730731901.899904.png</t>
+          <t>./test_images/AFKS1731620875.9319274.png</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3719,13 +3943,16 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>20.849</v>
+        <v>20.743</v>
       </c>
       <c r="J69" t="n">
-        <v>20.788</v>
+        <v>20.626</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.06099999999999994</v>
+        <v>0.1169999999999973</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -3739,19 +3966,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1730731905.8344595</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>1731620885.8371372</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1731620893.0752933</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730731905.8344595.png</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
+          <t>./test_images/AFKS1731620885.8371372.png</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731620893.0752933.png</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3760,10 +3995,17 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>20.881</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>20.849</v>
+      </c>
+      <c r="J70" t="n">
+        <v>20.788</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.06099999999999994</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.29</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3771,29 +4013,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1730731907.9632874</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>1730731911.8134425</t>
-        </is>
-      </c>
+          <t>1731620896.828299</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730731907.9632874.png</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1730731911.8134425.png</t>
-        </is>
-      </c>
+          <t>./test_images/AFKS1731620896.828299.png</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t>short</t>
@@ -3805,13 +4039,16 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>677.55</v>
+        <v>20.881</v>
       </c>
       <c r="J71" t="n">
-        <v>674.25</v>
+        <v>20.881</v>
       </c>
       <c r="K71" t="n">
-        <v>3.299999999999955</v>
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3825,22 +4062,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1730731925.664864</t>
+          <t>1731620899.0252445</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1730731930.8695557</t>
+          <t>1731620903.0600016</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730731925.664864.png</t>
+          <t>./test_images/SIBN1731620899.0252445.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730731930.8695557.png</t>
+          <t>./test_images/SIBN1731620903.0600016.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3854,13 +4091,16 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>666.25</v>
+        <v>677.55</v>
       </c>
       <c r="J72" t="n">
-        <v>672.1</v>
+        <v>674.25</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.850000000000023</v>
+        <v>3.299999999999955</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="73">
@@ -3874,27 +4114,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1730731930.8874798</t>
+          <t>1731620918.1408105</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1730731937.609968</t>
+          <t>1731620923.7253706</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730731930.8874798.png</t>
+          <t>./test_images/SIBN1731620918.1408105.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730731937.609968.png</t>
+          <t>./test_images/SIBN1731620923.7253706.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3903,13 +4143,16 @@
         </is>
       </c>
       <c r="I73" t="n">
+        <v>666.25</v>
+      </c>
+      <c r="J73" t="n">
         <v>672.1</v>
       </c>
-      <c r="J73" t="n">
-        <v>676.7</v>
-      </c>
       <c r="K73" t="n">
-        <v>4.600000000000023</v>
+        <v>-5.850000000000023</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0.88</v>
       </c>
     </row>
     <row r="74">
@@ -3918,32 +4161,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1730731938.8011007</t>
+          <t>1731620923.7423527</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1730731939.2121499</t>
+          <t>1731620930.8058016</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730731938.8011007.png</t>
+          <t>./test_images/SIBN1731620923.7423527.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730731939.2121499.png</t>
+          <t>./test_images/SIBN1731620930.8058016.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3952,13 +4195,16 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.09926000000000001</v>
+        <v>672.1</v>
       </c>
       <c r="J74" t="n">
-        <v>0.09864000000000001</v>
+        <v>676.7</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0006200000000000094</v>
+        <v>4.600000000000023</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -3972,22 +4218,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1730731939.951175</t>
+          <t>1731620932.0746965</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1730731948.4382696</t>
+          <t>1731620932.4711208</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730731939.951175.png</t>
+          <t>./test_images/FEES1731620932.0746965.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730731948.4382696.png</t>
+          <t>./test_images/FEES1731620932.4711208.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4001,13 +4247,16 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0.09914000000000001</v>
+        <v>0.09926000000000001</v>
       </c>
       <c r="J75" t="n">
-        <v>0.10034</v>
+        <v>0.09864000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.001200000000000007</v>
+        <v>0.0006200000000000094</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="76">
@@ -4021,27 +4270,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1730731948.456221</t>
+          <t>1731620933.2010148</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1730731954.9168878</t>
+          <t>1731620941.5468683</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730731948.456221.png</t>
+          <t>./test_images/FEES1731620933.2010148.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730731954.9168878.png</t>
+          <t>./test_images/FEES1731620941.5468683.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4050,13 +4299,16 @@
         </is>
       </c>
       <c r="I76" t="n">
+        <v>0.09914000000000001</v>
+      </c>
+      <c r="J76" t="n">
         <v>0.10034</v>
       </c>
-      <c r="J76" t="n">
-        <v>0.09952000000000001</v>
-      </c>
       <c r="K76" t="n">
-        <v>-0.0008200000000000013</v>
+        <v>-0.001200000000000007</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="77">
@@ -4070,27 +4322,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1730731954.9348671</t>
+          <t>1731620941.5648162</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1730731961.5510375</t>
+          <t>1731620947.8460102</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730731954.9348671.png</t>
+          <t>./test_images/FEES1731620941.5648162.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730731961.5510375.png</t>
+          <t>./test_images/FEES1731620947.8460102.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4099,13 +4351,16 @@
         </is>
       </c>
       <c r="I77" t="n">
+        <v>0.10034</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.09952000000000001</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.0989</v>
-      </c>
       <c r="K77" t="n">
-        <v>0.0006200000000000094</v>
+        <v>-0.0008200000000000013</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4119,16 +4374,24 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1730731968.0066104</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>1731620947.8639627</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1731620954.7155042</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730731968.0066104.png</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>./test_images/FEES1731620947.8639627.png</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731620954.7155042.png</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>short</t>
@@ -4140,10 +4403,17 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.09892000000000001</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>0.09952000000000001</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0989</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0006200000000000094</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4151,29 +4421,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1730731973.4269743</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1730731977.8658035</t>
-        </is>
-      </c>
+          <t>1731620961.5270717</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730731973.4269743.png</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1730731977.8658035.png</t>
-        </is>
-      </c>
+          <t>./test_images/FEES1731620961.5270717.png</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
           <t>short</t>
@@ -4185,13 +4447,16 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0.5998</v>
+        <v>0.09892000000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>0.5965</v>
+        <v>0.09892000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>0.00329999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4205,27 +4470,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1730731982.8802106</t>
+          <t>1731620967.348023</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1730731984.7440708</t>
+          <t>1731620971.944799</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730731982.8802106.png</t>
+          <t>./test_images/HYDR1731620967.348023.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730731984.7440708.png</t>
+          <t>./test_images/HYDR1731620971.944799.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4234,13 +4499,16 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.5986</v>
+        <v>0.5998</v>
       </c>
       <c r="J80" t="n">
-        <v>0.6016</v>
+        <v>0.5965</v>
       </c>
       <c r="K80" t="n">
-        <v>0.003000000000000003</v>
+        <v>0.00329999999999997</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4254,22 +4522,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1730731986.6188474</t>
+          <t>1731620977.3462293</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1730731988.8814902</t>
+          <t>1731620979.300938</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730731986.6188474.png</t>
+          <t>./test_images/HYDR1731620977.3462293.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730731988.8814902.png</t>
+          <t>./test_images/HYDR1731620979.300938.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4283,13 +4551,16 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.5995</v>
+        <v>0.5986</v>
       </c>
       <c r="J81" t="n">
-        <v>0.6033000000000001</v>
+        <v>0.6016</v>
       </c>
       <c r="K81" t="n">
-        <v>0.003800000000000026</v>
+        <v>0.003000000000000003</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="82">
@@ -4303,22 +4574,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1730731991.9624333</t>
+          <t>1731620981.2308884</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1730731995.138865</t>
+          <t>1731620983.591058</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730731991.9624333.png</t>
+          <t>./test_images/HYDR1731620981.2308884.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730731995.138865.png</t>
+          <t>./test_images/HYDR1731620983.591058.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4332,13 +4603,16 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.6026</v>
+        <v>0.5995</v>
       </c>
       <c r="J82" t="n">
-        <v>0.6024</v>
+        <v>0.6033000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.003800000000000026</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="83">
@@ -4352,27 +4626,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1730731995.1699858</t>
+          <t>1731620986.7863073</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1730732000.2680054</t>
+          <t>1731620990.7047648</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730731995.1699858.png</t>
+          <t>./test_images/HYDR1731620986.7863073.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730732000.2680054.png</t>
+          <t>./test_images/HYDR1731620990.7047648.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4381,13 +4655,16 @@
         </is>
       </c>
       <c r="I83" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="J83" t="n">
         <v>0.6024</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.6021000000000001</v>
-      </c>
       <c r="K83" t="n">
-        <v>0.000299999999999967</v>
+        <v>-0.000199999999999978</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="84">
@@ -4401,27 +4678,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1730732000.2859573</t>
+          <t>1731620990.7227163</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1730732002.356943</t>
+          <t>1731620996.1895208</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730732000.2859573.png</t>
+          <t>./test_images/HYDR1731620990.7227163.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730732002.356943.png</t>
+          <t>./test_images/HYDR1731620996.1895208.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4430,13 +4707,16 @@
         </is>
       </c>
       <c r="I84" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.6021000000000001</v>
       </c>
-      <c r="J84" t="n">
-        <v>97.62</v>
-      </c>
       <c r="K84" t="n">
-        <v>97.0179</v>
+        <v>0.000299999999999967</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="85">
@@ -4450,13 +4730,13 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1730732002.7535248</t>
+          <t>1731620996.20847</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730732002.7535248.png</t>
+          <t>./test_images/HYDR1731620996.20847.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -4471,10 +4751,17 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>97.55</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>0.6021000000000001</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.6021000000000001</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4487,22 +4774,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1730732004.7180717</t>
+          <t>1731620996.9635396</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1730732006.6869645</t>
+          <t>1731620999.15225</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732004.7180717.png</t>
+          <t>./test_images/MXI1731620996.9635396.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732006.6869645.png</t>
+          <t>./test_images/MXI1731620999.15225.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4523,6 +4810,9 @@
       </c>
       <c r="K86" t="n">
         <v>-0.0500000000001819</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="87">
@@ -4536,22 +4826,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1730732006.7049155</t>
+          <t>1731620999.1691744</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1730732008.5590487</t>
+          <t>1731621001.1431491</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732006.7049155.png</t>
+          <t>./test_images/MXI1731620999.1691744.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732008.5590487.png</t>
+          <t>./test_images/MXI1731621001.1431491.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4572,6 +4862,9 @@
       </c>
       <c r="K87" t="n">
         <v>-3.550000000000182</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="88">
@@ -4585,22 +4878,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1730732008.5969517</t>
+          <t>1731621001.1615202</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1730732009.671655</t>
+          <t>1731621002.2980065</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732008.5969517.png</t>
+          <t>./test_images/MXI1731621001.1615202.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732009.671655.png</t>
+          <t>./test_images/MXI1731621002.2980065.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4621,6 +4914,9 @@
       </c>
       <c r="K88" t="n">
         <v>8.449999999999818</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="89">
@@ -4634,22 +4930,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1730732011.4343264</t>
+          <t>1731621004.1337566</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1730732013.3773465</t>
+          <t>1731621006.044545</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732011.4343264.png</t>
+          <t>./test_images/MXI1731621004.1337566.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732013.3773465.png</t>
+          <t>./test_images/MXI1731621006.044545.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4670,6 +4966,9 @@
       </c>
       <c r="K89" t="n">
         <v>2.5</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="90">
@@ -4683,22 +4982,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1730732014.0466154</t>
+          <t>1731621006.7222877</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1730732014.9470644</t>
+          <t>1731621007.6642811</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732014.0466154.png</t>
+          <t>./test_images/MXI1731621006.7222877.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732014.9470644.png</t>
+          <t>./test_images/MXI1731621007.6642811.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4719,6 +5018,9 @@
       </c>
       <c r="K90" t="n">
         <v>-1.049999999999727</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="91">
@@ -4732,22 +5034,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1730732014.9709783</t>
+          <t>1731621007.682239</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1730732017.522976</t>
+          <t>1731621010.4010408</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732014.9709783.png</t>
+          <t>./test_images/MXI1731621007.682239.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732017.522976.png</t>
+          <t>./test_images/MXI1731621010.4010408.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4768,6 +5070,9 @@
       </c>
       <c r="K91" t="n">
         <v>-12.84999999999991</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="92">
@@ -4781,22 +5086,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1730732017.5409276</t>
+          <t>1731621010.4190357</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1730732018.6556711</t>
+          <t>1731621011.6410532</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732017.5409276.png</t>
+          <t>./test_images/MXI1731621010.4190357.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732018.6556711.png</t>
+          <t>./test_images/MXI1731621011.6410532.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4817,6 +5122,9 @@
       </c>
       <c r="K92" t="n">
         <v>1.150000000000091</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="93">
@@ -4830,22 +5138,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1730732018.6736238</t>
+          <t>1731621011.659009</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1730732020.049723</t>
+          <t>1731621013.1098473</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732018.6736238.png</t>
+          <t>./test_images/MXI1731621011.659009.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732020.049723.png</t>
+          <t>./test_images/MXI1731621013.1098473.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4866,6 +5174,9 @@
       </c>
       <c r="K93" t="n">
         <v>-1.199999999999818</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="94">
@@ -4879,22 +5190,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1730732020.0955994</t>
+          <t>1731621013.128798</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1730732021.0391605</t>
+          <t>1731621014.1279726</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732020.0955994.png</t>
+          <t>./test_images/MXI1731621013.128798.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732021.0391605.png</t>
+          <t>./test_images/MXI1731621014.1279726.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4915,6 +5226,9 @@
       </c>
       <c r="K94" t="n">
         <v>1.25</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="95">
@@ -4928,22 +5242,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1730732021.0750368</t>
+          <t>1731621014.1449268</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1730732022.410135</t>
+          <t>1731621015.4735663</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732021.0750368.png</t>
+          <t>./test_images/MXI1731621014.1449268.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732022.410135.png</t>
+          <t>./test_images/MXI1731621015.4735663.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4964,6 +5278,9 @@
       </c>
       <c r="K95" t="n">
         <v>13.15000000000009</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="96">
@@ -4977,22 +5294,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1730732022.754979</t>
+          <t>1731621015.846554</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1730732023.4614725</t>
+          <t>1731621016.643564</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732022.754979.png</t>
+          <t>./test_images/MXI1731621015.846554.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732023.4614725.png</t>
+          <t>./test_images/MXI1731621016.643564.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5013,6 +5330,9 @@
       </c>
       <c r="K96" t="n">
         <v>0.9000000000000909</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="97">
@@ -5026,22 +5346,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1730732023.480421</t>
+          <t>1731621016.6614885</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1730732026.1697187</t>
+          <t>1731621019.4253726</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732023.480421.png</t>
+          <t>./test_images/MXI1731621016.6614885.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732026.1697187.png</t>
+          <t>./test_images/MXI1731621019.4253726.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5062,6 +5382,9 @@
       </c>
       <c r="K97" t="n">
         <v>-16.84999999999991</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -5075,22 +5398,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1730732026.188641</t>
+          <t>1731621019.4432974</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1730732031.4920454</t>
+          <t>1731621025.0584605</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732026.188641.png</t>
+          <t>./test_images/MXI1731621019.4432974.png</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732031.4920454.png</t>
+          <t>./test_images/MXI1731621025.0584605.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5111,6 +5434,9 @@
       </c>
       <c r="K98" t="n">
         <v>-17.34999999999991</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="99">
@@ -5124,13 +5450,13 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1730732035.8186135</t>
+          <t>1731621029.6202233</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732035.8186135.png</t>
+          <t>./test_images/MXI1731621029.6202233.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -5147,8 +5473,15 @@
       <c r="I99" t="n">
         <v>2964.05</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2964.05</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5161,22 +5494,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1730732037.6348894</t>
+          <t>1731621031.5884109</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1730732042.2899437</t>
+          <t>1731621036.5868814</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730732037.6348894.png</t>
+          <t>./test_images/RUAL1731621031.5884109.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730732042.2899437.png</t>
+          <t>./test_images/RUAL1731621036.5868814.png</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5197,6 +5530,9 @@
       </c>
       <c r="K100" t="n">
         <v>-0.01500000000000057</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="101">
@@ -5210,22 +5546,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1730732042.3321567</t>
+          <t>1731621036.6038363</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1730732042.9692712</t>
+          <t>1731621037.2678814</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730732042.3321567.png</t>
+          <t>./test_images/RUAL1731621036.6038363.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730732042.9692712.png</t>
+          <t>./test_images/RUAL1731621037.2678814.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5246,6 +5582,9 @@
       </c>
       <c r="K101" t="n">
         <v>0.1550000000000011</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="102">
@@ -5259,22 +5598,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1730732058.3594923</t>
+          <t>1731621053.501439</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1730732064.942481</t>
+          <t>1731621060.6105165</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730732058.3594923.png</t>
+          <t>./test_images/RUAL1731621053.501439.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730732064.942481.png</t>
+          <t>./test_images/RUAL1731621060.6105165.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5295,6 +5634,9 @@
       </c>
       <c r="K102" t="n">
         <v>-0.134999999999998</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +5650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5332,6 +5674,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5343,7 +5700,16 @@
         <v>-25.49999999999955</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.821428571428539</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="3">
@@ -5356,7 +5722,16 @@
         <v>-5.800000000000296</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.7250000000000369</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.5599999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5369,202 +5744,346 @@
         <v>19.39999999999986</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.771428571428552</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5300000000000011</v>
+        <v>-1.760000000000048</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.2514285714285783</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.02809999999999</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05714285714285694</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.760000000000048</v>
+        <v>-0.5300000000000011</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.08833333333333353</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4100000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.01019999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.001699999999999998</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.100000000000009</v>
+        <v>-0.000779999999999989</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.0001559999999999978</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.000779999999999989</v>
+        <v>1.100000000000009</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2200000000000017</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1899999999999977</v>
+        <v>1.550000000000011</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3100000000000023</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.550000000000011</v>
+        <v>-0.08400000000000318</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.0210000000000008</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.530000000000086</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.04749999999999943</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.049999999999955</v>
+        <v>-0.7300000000000182</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.1825000000000045</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01999999999999602</v>
+        <v>-0.2600000000000193</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.08666666666667311</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.08400000000000318</v>
+        <v>0.005000000000002558</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.001666666666667519</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.005000000000002558</v>
+        <v>1.530000000000086</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.5100000000000288</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.7300000000000182</v>
+        <v>-0.01999999999999602</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.00666666666666534</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2600000000000193</v>
+        <v>2.049999999999955</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6833333333333181</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2899999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
@@ -5579,19 +6098,55 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>moex</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>moex</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/ST1/ST1_02.08.24_output.xlsx
+++ b/docs/ST1/ST1_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731620412.3311982</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731620417.2194011</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731620412.3311982.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731620417.2194011.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.87</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>285.31</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.560000000000002</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731620419.1411922</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731620426.5381782</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731620419.1411922.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731620426.5381782.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>285.72</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>284.52</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731620434.4272327</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731620441.7052364</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731620434.4272327.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731620441.7052364.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>286.58</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>285.35</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.229999999999961</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731620455.7388902</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731620457.3398664</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620455.7388902.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620457.3398664.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>131.27</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>130.37</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731620462.502919</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731620469.6142218</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620462.502919.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620469.6142218.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>130.34</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.53</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.189999999999998</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.91</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731620469.6301801</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731620475.9209723</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620469.6301801.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620475.9209723.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>131.53</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>131.14</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3900000000000148</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731620477.2064376</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731620478.2964356</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620477.2064376.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620478.2964356.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>131.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>131.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731620478.3124225</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731620478.8557713</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620478.3124225.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620478.8557713.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>131.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>131.17</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731620478.8717282</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731620480.589273</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620478.8717282.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731620480.589273.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>131.17</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>131.29</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731620482.3140419</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731620492.745396</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731620482.3140419.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731620492.745396.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6681</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6624</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>57</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.8500000000000001</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731620502.8024397</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731620509.1808534</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731620502.8024397.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731620509.1808534.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6633</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6600</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-33</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731620519.0155659</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731620521.9200325</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731620519.0155659.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731620521.9200325.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>507.95</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>508.55</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731620521.9359887</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731620523.2730584</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731620521.9359887.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731620523.2730584.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>508.55</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>506.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.949999999999989</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731620534.063049</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731620543.371725</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731620534.063049.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731620543.371725.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>505.75</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>504.7</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.050000000000011</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731620543.3886807</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731620545.7750008</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731620543.3886807.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731620545.7750008.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>504.7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>504.65</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1319,95 +1425,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731620545.7921748</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731620545.7921748.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731620545.7921748.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>504.65</v>
       </c>
-      <c r="J18" t="n">
-        <v>504.65</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>504.95</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731620548.1516201</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731620552.2492669</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731620548.1516201.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731620552.2492669.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>229.35</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>228.11</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.239999999999981</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731620560.465418</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731620568.9052758</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731620560.465418.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731620568.9052758.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>228.15</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>230.12</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-1.969999999999999</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731620568.921262</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731620580.6673152</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731620568.921262.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731620580.6673152.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>230.12</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>230.12</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1519,95 +1649,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731620580.6902254</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731620580.6902254.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731620580.6902254.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>230.12</v>
       </c>
-      <c r="J22" t="n">
-        <v>230.12</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>230.16</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731620583.5866754</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731620591.120741</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620583.5866754.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620591.120741.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1030.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1026.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-3.800000000000182</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731620591.1366804</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731620593.3455577</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620591.1366804.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620593.3455577.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1026.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1022.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>4.199999999999932</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731620599.2534006</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731620603.67351</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620599.2534006.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620603.67351.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1021.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1024.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-2.600000000000023</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731620603.6904645</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731620610.69663</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620603.6904645.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620610.69663.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1024.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-4.400000000000091</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731620610.7135844</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731620611.6686516</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620610.7135844.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620611.6686516.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1019.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1018</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731620612.544511</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731620614.8238094</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620612.544511.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620614.8238094.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1018.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731620614.8415484</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731620615.379464</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620614.8415484.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731620615.379464.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1019.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1927,43 +2105,49 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731620615.3963928</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731620615.3963928.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731620615.3963928.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1020.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731620626.0753126</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731620626.7475219</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731620626.0753126.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731620626.7475219.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>128.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>127.96</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4400000000000119</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731620631.2888584</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731620632.9490693</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731620631.2888584.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731620632.9490693.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>127.88</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>127.54</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.3399999999999892</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731620641.485122</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731620642.0182557</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731620641.485122.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731620642.0182557.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>128.04</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>128.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731620644.3971794</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731620648.8846068</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731620644.3971794.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731620648.8846068.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>128.16</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>127.72</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731620648.901561</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731620651.486459</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731620648.901561.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731620651.486459.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>127.72</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>127.52</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731620657.8655076</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731620673.8839374</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620657.8655076.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620673.8839374.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>164.78</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>165.06</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731620678.728579</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731620687.6399953</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620678.728579.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620687.6399953.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>165.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>165.26</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.5400000000000205</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -2335,95 +2561,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731620687.6569667</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731620687.6569667.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731620687.6569667.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>165.26</v>
       </c>
-      <c r="J38" t="n">
-        <v>165.26</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>165.7</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731620689.653751</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731620696.1184416</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620689.653751.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620696.1184416.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>50.53</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>50.305</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.2250000000000014</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731620697.282974</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731620701.502489</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620697.282974.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620701.502489.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>50.425</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>50.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731620701.519444</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731620706.4809597</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620701.519444.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620706.4809597.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>50.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>50.39</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731620706.4979143</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731620707.383003</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620706.4979143.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620707.383003.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>50.39</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>50.27</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731620712.4550607</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731620718.7051382</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620712.4550607.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620718.7051382.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>50.36</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>50.355</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.005000000000002558</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731620719.681518</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731620722.828074</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620719.681518.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620722.828074.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>50.375</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>50.42</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.04500000000000171</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2691,95 +2959,107 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731620723.3904948</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731620723.3904948.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731620723.3904948.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>50.405</v>
       </c>
-      <c r="J45" t="n">
-        <v>50.405</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.39</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731620726.0119846</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731620729.7590446</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620726.0119846.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620729.7590446.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1409.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1405</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>4.599999999999909</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2787,51 +3067,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731620734.1183567</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731620736.360377</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620734.1183567.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620736.360377.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1406.2</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1403</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2839,51 +3125,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731620737.7486646</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731620741.3528666</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620737.7486646.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620741.3528666.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1405</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1395.2</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>9.799999999999955</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731620744.108505</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731620747.3796046</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620744.108505.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620747.3796046.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1402.8</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1397.8</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731620747.3965619</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731620751.6735115</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620747.3965619.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620751.6735115.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1397.8</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1399.8</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>2</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731620751.690462</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731620756.9379723</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620751.690462.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620756.9379723.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1399.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1405</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-5.200000000000045</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -3047,95 +3357,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731620756.954954</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731620756.954954.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731620756.954954.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1405</v>
       </c>
-      <c r="J52" t="n">
-        <v>1405</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1405.4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731620761.717089</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731620765.6452076</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620761.717089.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620765.6452076.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>60.73</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>60.65</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3143,51 +3465,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731620765.662134</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731620769.0798843</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620765.662134.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620769.0798843.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>60.65</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>60.31</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.3399999999999963</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -3195,51 +3523,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731620780.8135502</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731620784.567304</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620780.8135502.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620784.567304.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>60.29</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>60.19</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3247,51 +3581,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731620784.584259</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731620787.6637726</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620784.584259.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620787.6637726.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>60.19</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>60.16</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3299,95 +3639,107 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731620793.4882343</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731620793.4882343.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731620793.4882343.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>97.55</v>
       </c>
-      <c r="J57" t="n">
-        <v>97.55</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>97.59999999999999</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731620817.7659054</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731620825.3298748</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620817.7659054.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620825.3298748.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>56.98</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>56.78</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.1999999999999957</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -3395,51 +3747,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731620825.346827</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731620827.0797126</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620825.346827.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620827.0797126.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>56.78</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>56.86</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3447,51 +3805,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731620827.0966973</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731620828.8969657</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620827.0966973.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620828.8969657.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>56.86</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>57.12</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.259999999999998</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3499,51 +3863,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731620832.0575185</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731620836.246576</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620832.0575185.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620836.246576.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>143.16</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>143.06</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -3551,51 +3921,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731620836.2635307</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731620836.4489737</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620836.2635307.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620836.4489737.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>143.06</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>142.56</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.5</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3603,51 +3979,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731620837.237223</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731620841.712399</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620837.237223.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620841.712399.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>142.98</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>142.88</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3655,51 +4037,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731620841.7284162</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731620846.0870836</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620841.7284162.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620846.0870836.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>142.88</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>142.98</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3707,51 +4095,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731620846.1040385</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731620852.8467216</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620846.1040385.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620852.8467216.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>142.98</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>145.36</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-2.380000000000024</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-1.66</v>
       </c>
     </row>
@@ -3759,51 +4153,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731620852.8636768</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731620859.4219584</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620852.8636768.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620859.4219584.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>145.36</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>145.38</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.01999999999998181</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3811,95 +4211,107 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731620860.3664098</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731620860.3664098.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731620860.3664098.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>145.48</v>
       </c>
-      <c r="J67" t="n">
-        <v>145.48</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>145.26</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731620866.7190795</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731620872.618277</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731620866.7190795.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731620872.618277.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>20.883</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>20.743</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.67</v>
       </c>
     </row>
@@ -3907,51 +4319,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731620872.6361976</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731620875.9319274</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731620872.6361976.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731620875.9319274.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>20.743</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>20.626</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.1169999999999973</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -3959,51 +4377,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731620885.8371372</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731620893.0752933</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731620885.8371372.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731620893.0752933.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>20.849</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>20.788</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.06099999999999994</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -4011,95 +4435,107 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731620896.828299</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731620896.828299.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731620896.828299.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>20.881</v>
       </c>
-      <c r="J71" t="n">
-        <v>20.881</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>20.902</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.0210000000000008</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731620899.0252445</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731620903.0600016</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620899.0252445.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620903.0600016.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>677.55</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>674.25</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>3.299999999999955</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -4107,51 +4543,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731620918.1408105</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731620923.7253706</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620918.1408105.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620923.7253706.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>666.25</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>672.1</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-5.850000000000023</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -4159,51 +4601,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731620923.7423527</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731620930.8058016</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620923.7423527.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620930.8058016.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>672.1</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>676.7</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>4.600000000000023</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -4211,51 +4659,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731620932.0746965</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731620932.4711208</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620932.0746965.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620932.4711208.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.09926000000000001</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.0006200000000000094</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -4263,51 +4717,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731620933.2010148</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731620941.5468683</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620933.2010148.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620941.5468683.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>0.09914000000000001</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>0.10034</v>
       </c>
-      <c r="K76" t="n">
-        <v>-0.001200000000000007</v>
-      </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
+        <v>-0.001199999999999993</v>
+      </c>
+      <c r="N76" t="n">
         <v>-1.21</v>
       </c>
     </row>
@@ -4315,51 +4775,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731620941.5648162</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731620947.8460102</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620941.5648162.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620947.8460102.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.10034</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.09952000000000001</v>
       </c>
-      <c r="K77" t="n">
-        <v>-0.0008200000000000013</v>
-      </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
+        <v>-0.0008199999999999874</v>
+      </c>
+      <c r="N77" t="n">
         <v>-0.8200000000000001</v>
       </c>
     </row>
@@ -4367,51 +4833,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731620947.8639627</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731620954.7155042</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620947.8639627.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620954.7155042.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.09952000000000001</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.0989</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.0006200000000000094</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -4419,95 +4891,107 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731620961.5270717</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731620961.5270717.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731620961.5270717.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.09892000000000001</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.09892000000000001</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.09916</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.0002399999999999902</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731620967.348023</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731620971.944799</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620967.348023.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620971.944799.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.5998</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.5965</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.00329999999999997</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -4515,51 +4999,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731620977.3462293</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731620979.300938</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620977.3462293.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620979.300938.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>0.5986</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>0.6016</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.003000000000000003</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4567,51 +5057,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731620981.2308884</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731620983.591058</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620981.2308884.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620983.591058.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.5995</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.6033000000000001</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.003800000000000026</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -4619,51 +5115,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731620986.7863073</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731620990.7047648</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620986.7863073.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620990.7047648.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.6026</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.6024</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.000199999999999978</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4671,51 +5173,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731620990.7227163</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731620996.1895208</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620990.7227163.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620996.1895208.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>0.6024</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>0.6021000000000001</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.000299999999999967</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4723,95 +5231,107 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731620996.20847</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731620996.20847.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731620996.20847.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.6021000000000001</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.6021000000000001</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.6022</v>
+      </c>
+      <c r="M85" t="n">
+        <v>9.999999999987796e-05</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731620996.9635396</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731620999.15225</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620996.9635396.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620999.15225.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>2992.95</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>2993</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.0500000000001819</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -4819,51 +5339,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731620999.1691744</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731621001.1431491</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620999.1691744.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621001.1431491.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>2993</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>2989.45</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-3.550000000000182</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -4871,51 +5397,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731621001.1615202</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731621002.2980065</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621001.1615202.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621002.2980065.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>2989.45</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>2981</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>8.449999999999818</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4923,51 +5455,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731621004.1337566</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731621006.044545</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621004.1337566.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621006.044545.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>2974.85</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>2972.35</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>2.5</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4975,51 +5513,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731621006.7222877</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731621007.6642811</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621006.7222877.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621007.6642811.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>2974.15</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>2975.2</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-1.049999999999727</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -5027,51 +5571,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731621007.682239</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731621010.4010408</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621007.682239.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621010.4010408.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>2975.2</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>2962.35</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-12.84999999999991</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -5079,51 +5629,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731621010.4190357</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731621011.6410532</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621010.4190357.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621011.6410532.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>2962.35</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>2961.2</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>1.150000000000091</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -5131,51 +5687,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731621011.659009</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731621013.1098473</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621011.659009.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621013.1098473.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>2961.2</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>2960</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-1.199999999999818</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -5183,51 +5745,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731621013.128798</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731621014.1279726</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621013.128798.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621014.1279726.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2960</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>2958.75</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>1.25</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -5235,51 +5803,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731621014.1449268</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731621015.4735663</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621014.1449268.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621015.4735663.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>2958.75</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>2971.9</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>13.15000000000009</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -5287,51 +5861,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731621015.846554</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731621016.643564</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621015.846554.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621016.643564.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>2966.4</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>2967.3</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.9000000000000909</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -5339,51 +5919,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731621016.6614885</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731621019.4253726</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621016.6614885.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621019.4253726.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2967.3</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>2984.15</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-16.84999999999991</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -5391,51 +5977,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731621019.4432974</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731621025.0584605</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621019.4432974.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621025.0584605.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>2984.15</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>2966.8</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-17.34999999999991</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -5443,95 +6035,107 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731621029.6202233</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731621029.6202233.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731621029.6202233.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>2964.05</v>
       </c>
-      <c r="J99" t="n">
-        <v>2964.05</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>2965.3</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731621031.5884109</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731621036.5868814</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731621031.5884109.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731621036.5868814.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>34.525</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>34.51</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -5539,51 +6143,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731621036.6038363</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731621037.2678814</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731621036.6038363.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731621037.2678814.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>34.51</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>34.355</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.1550000000000011</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -5591,51 +6201,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731621053.501439</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731621060.6105165</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731621053.501439.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731621060.6105165.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>34.35</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>34.215</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-0.134999999999998</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -5697,16 +6313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-25.49999999999955</v>
+        <v>-24.24999999999955</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.821428571428539</v>
+        <v>-1.732142857142825</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.87</v>
+        <v>-0.83</v>
       </c>
       <c r="F2" t="n">
         <v>-0.06</v>
@@ -5741,16 +6357,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.39999999999986</v>
+        <v>19.79999999999995</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.771428571428552</v>
+        <v>2.828571428571422</v>
       </c>
       <c r="E4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="F4" t="n">
         <v>0.2</v>
@@ -5763,19 +6379,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.760000000000048</v>
+        <v>-1.980000000000047</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2514285714285783</v>
+        <v>-0.2828571428571495</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.23</v>
+        <v>-1.38</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="6">
@@ -5785,16 +6401,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.384999999999998</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05714285714285694</v>
+        <v>0.05499999999999972</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.7699999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.11</v>
@@ -5829,19 +6445,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01019999999999999</v>
+        <v>0.01029999999999986</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001699999999999998</v>
+        <v>0.001716666666666644</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="F8" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9">
@@ -5851,19 +6467,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.000779999999999989</v>
+        <v>-0.001019999999999952</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0001559999999999978</v>
+        <v>-0.0002039999999999903</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.79</v>
+        <v>-1.03</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.16</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="10">
@@ -5895,19 +6511,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.550000000000011</v>
+        <v>1.850000000000023</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3100000000000023</v>
+        <v>0.3700000000000045</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5917,19 +6533,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08400000000000318</v>
+        <v>-0.105000000000004</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0210000000000008</v>
+        <v>-0.02625000000000099</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4000000000000001</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="13">
@@ -5961,16 +6577,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.7300000000000182</v>
+        <v>-0.7700000000000102</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1825000000000045</v>
+        <v>-0.1925000000000026</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="F14" t="n">
         <v>-0.08</v>
@@ -5983,19 +6599,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2600000000000193</v>
+        <v>-0.7000000000000171</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08666666666667311</v>
+        <v>-0.233333333333339</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.16</v>
+        <v>-0.43</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.05</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="16">
@@ -6115,19 +6731,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
